--- a/Code/Results/Cases/Case_6_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_25/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004615485317092</v>
+        <v>1.01135130848559</v>
       </c>
       <c r="D2">
-        <v>1.023833077613014</v>
+        <v>1.02983226033272</v>
       </c>
       <c r="E2">
-        <v>1.010066135623626</v>
+        <v>1.016213303603752</v>
       </c>
       <c r="F2">
-        <v>1.024194912631378</v>
+        <v>1.030494093459589</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043902494045661</v>
+        <v>1.046985795683918</v>
       </c>
       <c r="J2">
-        <v>1.026659018959806</v>
+        <v>1.033197724761458</v>
       </c>
       <c r="K2">
-        <v>1.034970072394176</v>
+        <v>1.040891059052958</v>
       </c>
       <c r="L2">
-        <v>1.021386992110429</v>
+        <v>1.02745128955564</v>
       </c>
       <c r="M2">
-        <v>1.035327158557802</v>
+        <v>1.041544335317632</v>
       </c>
       <c r="N2">
-        <v>1.028116992526171</v>
+        <v>1.03466498404006</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011055122258285</v>
+        <v>1.015461519037991</v>
       </c>
       <c r="D3">
-        <v>1.028880016709003</v>
+        <v>1.033020981364742</v>
       </c>
       <c r="E3">
-        <v>1.015378243915555</v>
+        <v>1.019478523308617</v>
       </c>
       <c r="F3">
-        <v>1.03007067621672</v>
+        <v>1.034364292140509</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04577369142279</v>
+        <v>1.048180124674986</v>
       </c>
       <c r="J3">
-        <v>1.031248884143532</v>
+        <v>1.035539381572408</v>
       </c>
       <c r="K3">
-        <v>1.039156240729761</v>
+        <v>1.043248091417282</v>
       </c>
       <c r="L3">
-        <v>1.025818066956834</v>
+        <v>1.029868094419589</v>
       </c>
       <c r="M3">
-        <v>1.04033272827646</v>
+        <v>1.044575574418832</v>
       </c>
       <c r="N3">
-        <v>1.032713375844916</v>
+        <v>1.037009966272268</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015112807684981</v>
+        <v>1.018071488433713</v>
       </c>
       <c r="D4">
-        <v>1.032062706651063</v>
+        <v>1.035048776007421</v>
       </c>
       <c r="E4">
-        <v>1.018731538540622</v>
+        <v>1.021557645251914</v>
       </c>
       <c r="F4">
-        <v>1.033779127352827</v>
+        <v>1.036827325362765</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046941328430073</v>
+        <v>1.048930365657254</v>
       </c>
       <c r="J4">
-        <v>1.034137670496089</v>
+        <v>1.037023954175958</v>
       </c>
       <c r="K4">
-        <v>1.041788970929348</v>
+        <v>1.044741824155213</v>
       </c>
       <c r="L4">
-        <v>1.028609027058025</v>
+        <v>1.031402668563714</v>
       </c>
       <c r="M4">
-        <v>1.043486269842631</v>
+        <v>1.046500701220541</v>
       </c>
       <c r="N4">
-        <v>1.035606264605442</v>
+        <v>1.038496647139198</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016793791512197</v>
+        <v>1.019157223561517</v>
       </c>
       <c r="D5">
-        <v>1.033381729855636</v>
+        <v>1.035892999752101</v>
       </c>
       <c r="E5">
-        <v>1.020122095980083</v>
+        <v>1.022423885455194</v>
       </c>
       <c r="F5">
-        <v>1.035316813935057</v>
+        <v>1.037853217518945</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047422250676145</v>
+        <v>1.049240474321707</v>
       </c>
       <c r="J5">
-        <v>1.035333554375817</v>
+        <v>1.037640931445473</v>
       </c>
       <c r="K5">
-        <v>1.042878361247141</v>
+        <v>1.045362461356283</v>
       </c>
       <c r="L5">
-        <v>1.029764914486394</v>
+        <v>1.032040992203163</v>
       </c>
       <c r="M5">
-        <v>1.044792495089202</v>
+        <v>1.04730158321793</v>
       </c>
       <c r="N5">
-        <v>1.036803846777449</v>
+        <v>1.039114500587204</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017074613217147</v>
+        <v>1.019338859903657</v>
       </c>
       <c r="D6">
-        <v>1.033602111554494</v>
+        <v>1.036034271063998</v>
       </c>
       <c r="E6">
-        <v>1.020354478847243</v>
+        <v>1.02256887916745</v>
       </c>
       <c r="F6">
-        <v>1.035573775773227</v>
+        <v>1.038024916995772</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047502426540617</v>
+        <v>1.049292235691052</v>
       </c>
       <c r="J6">
-        <v>1.035533284196684</v>
+        <v>1.037744111698798</v>
       </c>
       <c r="K6">
-        <v>1.04306027559441</v>
+        <v>1.045466244869243</v>
       </c>
       <c r="L6">
-        <v>1.029957993629331</v>
+        <v>1.032147775606147</v>
       </c>
       <c r="M6">
-        <v>1.045010696761997</v>
+        <v>1.047435566784449</v>
       </c>
       <c r="N6">
-        <v>1.037003860237572</v>
+        <v>1.039217827368324</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015135365166561</v>
+        <v>1.01808604075797</v>
       </c>
       <c r="D7">
-        <v>1.032080404942159</v>
+        <v>1.035060088712185</v>
       </c>
       <c r="E7">
-        <v>1.018750193355904</v>
+        <v>1.021569250417597</v>
       </c>
       <c r="F7">
-        <v>1.033799756533794</v>
+        <v>1.036841070577919</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04694779316102</v>
+        <v>1.048934529997455</v>
       </c>
       <c r="J7">
-        <v>1.034153721785917</v>
+        <v>1.037032226044555</v>
       </c>
       <c r="K7">
-        <v>1.041803594824562</v>
+        <v>1.044750145681105</v>
       </c>
       <c r="L7">
-        <v>1.028624539535886</v>
+        <v>1.03141122438829</v>
       </c>
       <c r="M7">
-        <v>1.04350379923193</v>
+        <v>1.046511435494647</v>
       </c>
       <c r="N7">
-        <v>1.035622338689943</v>
+        <v>1.038504930754797</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006815195404276</v>
+        <v>1.012750880752785</v>
       </c>
       <c r="D8">
-        <v>1.02555646238761</v>
+        <v>1.030917407853569</v>
       </c>
       <c r="E8">
-        <v>1.011879366759915</v>
+        <v>1.017323926354986</v>
       </c>
       <c r="F8">
-        <v>1.026200684113746</v>
+        <v>1.031810774071312</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044544045569108</v>
+        <v>1.047394166171684</v>
       </c>
       <c r="J8">
-        <v>1.028227533631256</v>
+        <v>1.033995563572866</v>
       </c>
       <c r="K8">
-        <v>1.036401034592278</v>
+        <v>1.041694256118417</v>
       </c>
       <c r="L8">
-        <v>1.022900793339019</v>
+        <v>1.028274237875184</v>
       </c>
       <c r="M8">
-        <v>1.037037071266768</v>
+        <v>1.042576421880963</v>
       </c>
       <c r="N8">
-        <v>1.02968773466836</v>
+        <v>1.035463955874089</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9912553438839073</v>
+        <v>1.002951674291753</v>
       </c>
       <c r="D9">
-        <v>1.013380916481361</v>
+        <v>1.023333991157863</v>
       </c>
       <c r="E9">
-        <v>0.9990828230911492</v>
+        <v>1.009573596983284</v>
       </c>
       <c r="F9">
-        <v>1.012042159713298</v>
+        <v>1.02261640838564</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039959319629258</v>
+        <v>1.044501762158379</v>
       </c>
       <c r="J9">
-        <v>1.017120723069424</v>
+        <v>1.028400630169642</v>
       </c>
       <c r="K9">
-        <v>1.02626056498727</v>
+        <v>1.036059503883587</v>
       </c>
       <c r="L9">
-        <v>1.012190798398376</v>
+        <v>1.022513235632885</v>
       </c>
       <c r="M9">
-        <v>1.024942836536651</v>
+        <v>1.035352905730675</v>
       </c>
       <c r="N9">
-        <v>1.01856515116156</v>
+        <v>1.029861077023684</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.980181596798155</v>
+        <v>0.9961247023337088</v>
       </c>
       <c r="D10">
-        <v>1.004739762162934</v>
+        <v>1.018070949149875</v>
       </c>
       <c r="E10">
-        <v>0.9900176279498072</v>
+        <v>1.004208614690161</v>
       </c>
       <c r="F10">
-        <v>1.002007650528644</v>
+        <v>1.016243442073583</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036639655910332</v>
+        <v>1.042446032621342</v>
       </c>
       <c r="J10">
-        <v>1.009204199187223</v>
+        <v>1.02449292288078</v>
       </c>
       <c r="K10">
-        <v>1.019023962846868</v>
+        <v>1.032121416503834</v>
       </c>
       <c r="L10">
-        <v>1.00456948699745</v>
+        <v>1.018502294806206</v>
       </c>
       <c r="M10">
-        <v>1.016340750591764</v>
+        <v>1.030325481496913</v>
       </c>
       <c r="N10">
-        <v>1.010637384907409</v>
+        <v>1.025947820342251</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9751958152433918</v>
+        <v>0.9930924032480046</v>
       </c>
       <c r="D11">
-        <v>1.00085665756795</v>
+        <v>1.015738779108013</v>
       </c>
       <c r="E11">
-        <v>0.9859476328359499</v>
+        <v>1.001834507765476</v>
       </c>
       <c r="F11">
-        <v>0.9975012486839798</v>
+        <v>1.013421070139663</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035132531619689</v>
+        <v>1.041523796624325</v>
       </c>
       <c r="J11">
-        <v>1.005638164726181</v>
+        <v>1.022755396785185</v>
       </c>
       <c r="K11">
-        <v>1.01576243664438</v>
+        <v>1.030369865888297</v>
       </c>
       <c r="L11">
-        <v>1.001139512663662</v>
+        <v>1.016721910683663</v>
       </c>
       <c r="M11">
-        <v>1.012470442143876</v>
+        <v>1.028094246669728</v>
       </c>
       <c r="N11">
-        <v>1.007066286268401</v>
+        <v>1.024207826760303</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9733128441652389</v>
+        <v>0.9919540464809199</v>
       </c>
       <c r="D12">
-        <v>0.9993914133879045</v>
+        <v>1.014864143915819</v>
       </c>
       <c r="E12">
-        <v>0.9844123902103884</v>
+        <v>1.000944625733131</v>
       </c>
       <c r="F12">
-        <v>0.9958011926955689</v>
+        <v>1.012362813486581</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03456155241249</v>
+        <v>1.041176246897737</v>
       </c>
       <c r="J12">
-        <v>1.004291227813508</v>
+        <v>1.022102872603282</v>
       </c>
       <c r="K12">
-        <v>1.014530282251938</v>
+        <v>1.02971200547445</v>
       </c>
       <c r="L12">
-        <v>0.9998444438310036</v>
+        <v>1.016053750554196</v>
       </c>
       <c r="M12">
-        <v>1.011009279771322</v>
+        <v>1.027256933364505</v>
       </c>
       <c r="N12">
-        <v>1.005717436550817</v>
+        <v>1.023554375919217</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9737181929178075</v>
+        <v>0.9921987818064925</v>
       </c>
       <c r="D13">
-        <v>0.9997067771208142</v>
+        <v>1.015052140694471</v>
       </c>
       <c r="E13">
-        <v>0.9847427965461176</v>
+        <v>1.001135878071604</v>
       </c>
       <c r="F13">
-        <v>0.9961670783446362</v>
+        <v>1.012590268938254</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034684546683383</v>
+        <v>1.041251026136508</v>
       </c>
       <c r="J13">
-        <v>1.004581189481482</v>
+        <v>1.022243168893701</v>
       </c>
       <c r="K13">
-        <v>1.01479554417301</v>
+        <v>1.029853452082594</v>
       </c>
       <c r="L13">
-        <v>1.000123217861285</v>
+        <v>1.0161973878704</v>
       </c>
       <c r="M13">
-        <v>1.011323799229007</v>
+        <v>1.027436932271532</v>
       </c>
       <c r="N13">
-        <v>1.006007809997619</v>
+        <v>1.023694871446461</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9750408158918197</v>
+        <v>0.9929985551373878</v>
       </c>
       <c r="D14">
-        <v>1.000736016997096</v>
+        <v>1.015666654287563</v>
       </c>
       <c r="E14">
-        <v>0.9858212185185988</v>
+        <v>1.001761115900846</v>
       </c>
       <c r="F14">
-        <v>0.9973612674432191</v>
+        <v>1.01333379908041</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035085566378668</v>
+        <v>1.041495170866947</v>
       </c>
       <c r="J14">
-        <v>1.00552729236884</v>
+        <v>1.022701606170036</v>
       </c>
       <c r="K14">
-        <v>1.015661017109441</v>
+        <v>1.030315636744141</v>
       </c>
       <c r="L14">
-        <v>1.001032900046943</v>
+        <v>1.016666821774137</v>
       </c>
       <c r="M14">
-        <v>1.012350152995282</v>
+        <v>1.028025210394094</v>
       </c>
       <c r="N14">
-        <v>1.006955256459596</v>
+        <v>1.024153959756311</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.97585154052884</v>
+        <v>0.993489710331563</v>
       </c>
       <c r="D15">
-        <v>1.001367081025457</v>
+        <v>1.016044156881335</v>
       </c>
       <c r="E15">
-        <v>0.9864825057818913</v>
+        <v>1.002145269808263</v>
       </c>
       <c r="F15">
-        <v>0.9980935167033747</v>
+        <v>1.013790586147781</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035331146130339</v>
+        <v>1.041644930017675</v>
       </c>
       <c r="J15">
-        <v>1.006107204772929</v>
+        <v>1.022983110501341</v>
       </c>
       <c r="K15">
-        <v>1.016191477658365</v>
+        <v>1.030599433266741</v>
       </c>
       <c r="L15">
-        <v>1.001590551551767</v>
+        <v>1.016955139254823</v>
       </c>
       <c r="M15">
-        <v>1.01297934817501</v>
+        <v>1.028386525727569</v>
       </c>
       <c r="N15">
-        <v>1.007535992405816</v>
+        <v>1.024435863856056</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9805082710062331</v>
+        <v>0.9963242923082348</v>
       </c>
       <c r="D16">
-        <v>1.004994355379846</v>
+        <v>1.018224575263197</v>
       </c>
       <c r="E16">
-        <v>0.9902845482495964</v>
+        <v>1.004365070387687</v>
       </c>
       <c r="F16">
-        <v>1.002303165088821</v>
+        <v>1.016429390941384</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036738152774538</v>
+        <v>1.042506548077792</v>
       </c>
       <c r="J16">
-        <v>1.009437822195126</v>
+        <v>1.024607253773474</v>
       </c>
       <c r="K16">
-        <v>1.019237602434606</v>
+        <v>1.032236660146364</v>
       </c>
       <c r="L16">
-        <v>1.004794261233484</v>
+        <v>1.018619509417961</v>
       </c>
       <c r="M16">
-        <v>1.01659440344845</v>
+        <v>1.030472385403985</v>
       </c>
       <c r="N16">
-        <v>1.010871339686779</v>
+        <v>1.026062313597927</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.98337664674665</v>
+        <v>0.9980815572297153</v>
       </c>
       <c r="D17">
-        <v>1.007230681163114</v>
+        <v>1.019577789768736</v>
       </c>
       <c r="E17">
-        <v>0.9926295657832531</v>
+        <v>1.005743577836942</v>
       </c>
       <c r="F17">
-        <v>1.004899257133747</v>
+        <v>1.018067503168891</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037601604541752</v>
+        <v>1.043038310511115</v>
       </c>
       <c r="J17">
-        <v>1.011488972408317</v>
+        <v>1.025613658511639</v>
       </c>
       <c r="K17">
-        <v>1.021113107101215</v>
+        <v>1.033251041575027</v>
       </c>
       <c r="L17">
-        <v>1.006768071453541</v>
+        <v>1.019651645243199</v>
       </c>
       <c r="M17">
-        <v>1.018821926490421</v>
+        <v>1.031765989933757</v>
       </c>
       <c r="N17">
-        <v>1.012925402768543</v>
+        <v>1.027070147546257</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9850314877305005</v>
+        <v>0.9990992314643914</v>
       </c>
       <c r="D18">
-        <v>1.008521565878121</v>
+        <v>1.020361985946124</v>
       </c>
       <c r="E18">
-        <v>0.9939835386125186</v>
+        <v>1.006542739655271</v>
       </c>
       <c r="F18">
-        <v>1.006398082378918</v>
+        <v>1.019016956199985</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038098568250926</v>
+        <v>1.043345394107035</v>
       </c>
       <c r="J18">
-        <v>1.012672163161001</v>
+        <v>1.026196311994416</v>
       </c>
       <c r="K18">
-        <v>1.022194809513635</v>
+        <v>1.033838263535325</v>
       </c>
       <c r="L18">
-        <v>1.007906938491751</v>
+        <v>1.020249484559552</v>
       </c>
       <c r="M18">
-        <v>1.020107282982707</v>
+        <v>1.032515312027954</v>
       </c>
       <c r="N18">
-        <v>1.01411027378781</v>
+        <v>1.027653628463811</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9855927206775881</v>
+        <v>0.9994450094687187</v>
       </c>
       <c r="D19">
-        <v>1.008959476883072</v>
+        <v>1.020628520403853</v>
       </c>
       <c r="E19">
-        <v>0.9944429109310131</v>
+        <v>1.00681441310919</v>
       </c>
       <c r="F19">
-        <v>1.006906580955082</v>
+        <v>1.01933968591002</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038266908118042</v>
+        <v>1.043449583462877</v>
       </c>
       <c r="J19">
-        <v>1.013073405767593</v>
+        <v>1.026394250125377</v>
       </c>
       <c r="K19">
-        <v>1.022561606017426</v>
+        <v>1.034037745010411</v>
       </c>
       <c r="L19">
-        <v>1.008293198769176</v>
+        <v>1.020452630554819</v>
       </c>
       <c r="M19">
-        <v>1.020543243701087</v>
+        <v>1.032769937766305</v>
       </c>
       <c r="N19">
-        <v>1.014512086204926</v>
+        <v>1.027851847689621</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9830707994970267</v>
+        <v>0.9978937793902806</v>
       </c>
       <c r="D20">
-        <v>1.006992154945547</v>
+        <v>1.019433133878048</v>
       </c>
       <c r="E20">
-        <v>0.9923794106222557</v>
+        <v>1.005596186258074</v>
       </c>
       <c r="F20">
-        <v>1.004622330456545</v>
+        <v>1.017892376203199</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037509659365637</v>
+        <v>1.042981577659792</v>
       </c>
       <c r="J20">
-        <v>1.011270280845728</v>
+        <v>1.025506134444595</v>
       </c>
       <c r="K20">
-        <v>1.020913159981581</v>
+        <v>1.033142670366869</v>
       </c>
       <c r="L20">
-        <v>1.006557595660444</v>
+        <v>1.019541342086765</v>
       </c>
       <c r="M20">
-        <v>1.018584385805231</v>
+        <v>1.031627740491677</v>
       </c>
       <c r="N20">
-        <v>1.012706400638851</v>
+        <v>1.026962470782705</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.974652213301506</v>
+        <v>0.9927633786514464</v>
       </c>
       <c r="D21">
-        <v>1.000433577318086</v>
+        <v>1.015485929261611</v>
       </c>
       <c r="E21">
-        <v>0.985504312665725</v>
+        <v>1.001577223740141</v>
       </c>
       <c r="F21">
-        <v>0.9970103476961223</v>
+        <v>1.013115125177668</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034967790281659</v>
+        <v>1.041423415491195</v>
       </c>
       <c r="J21">
-        <v>1.005249319429264</v>
+        <v>1.022566807126764</v>
       </c>
       <c r="K21">
-        <v>1.015406740097782</v>
+        <v>1.030179737660234</v>
       </c>
       <c r="L21">
-        <v>1.000765614603383</v>
+        <v>1.016528776618251</v>
       </c>
       <c r="M21">
-        <v>1.012048582186042</v>
+        <v>1.027852215806075</v>
       </c>
       <c r="N21">
-        <v>1.006676888766562</v>
+        <v>1.024018969282936</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9691782127339362</v>
+        <v>0.9894677990535363</v>
       </c>
       <c r="D22">
-        <v>0.9961765818393683</v>
+        <v>1.012955580235866</v>
       </c>
       <c r="E22">
-        <v>0.9810449080124417</v>
+        <v>0.9990036688346148</v>
       </c>
       <c r="F22">
-        <v>0.9920718221317092</v>
+        <v>1.010053938545205</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033304610796246</v>
+        <v>1.040414773993062</v>
       </c>
       <c r="J22">
-        <v>1.00133344998657</v>
+        <v>1.020677323800031</v>
       </c>
       <c r="K22">
-        <v>1.011824163816351</v>
+        <v>1.028274680633269</v>
       </c>
       <c r="L22">
-        <v>0.9970014591176826</v>
+        <v>1.014594889112417</v>
       </c>
       <c r="M22">
-        <v>1.007801991038296</v>
+        <v>1.025428821863312</v>
       </c>
       <c r="N22">
-        <v>1.002755458340103</v>
+        <v>1.022126802673152</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9720980929466587</v>
+        <v>0.9912216770378404</v>
       </c>
       <c r="D23">
-        <v>0.9984465308634936</v>
+        <v>1.014301699013481</v>
       </c>
       <c r="E23">
-        <v>0.9834225118614659</v>
+        <v>1.000372510949008</v>
       </c>
       <c r="F23">
-        <v>0.9947049904555629</v>
+        <v>1.011682347046852</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034192708177522</v>
+        <v>1.040952278412047</v>
       </c>
       <c r="J23">
-        <v>1.003422254309651</v>
+        <v>1.021683004786843</v>
       </c>
       <c r="K23">
-        <v>1.013735298559973</v>
+        <v>1.029288685563002</v>
       </c>
       <c r="L23">
-        <v>0.9990090690361175</v>
+        <v>1.015623951449442</v>
       </c>
       <c r="M23">
-        <v>1.010066814816903</v>
+        <v>1.026718337576895</v>
       </c>
       <c r="N23">
-        <v>1.004847229004912</v>
+        <v>1.023133911842319</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9832090548773931</v>
+        <v>0.9979786506570216</v>
       </c>
       <c r="D24">
-        <v>1.007099976355161</v>
+        <v>1.019498513416709</v>
       </c>
       <c r="E24">
-        <v>0.9924924876022804</v>
+        <v>1.005662801279161</v>
       </c>
       <c r="F24">
-        <v>1.004747509246491</v>
+        <v>1.017971527142539</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037551226003241</v>
+        <v>1.043007222312889</v>
       </c>
       <c r="J24">
-        <v>1.011369138855183</v>
+        <v>1.025554733410963</v>
       </c>
       <c r="K24">
-        <v>1.021003545220642</v>
+        <v>1.033191652380313</v>
       </c>
       <c r="L24">
-        <v>1.006652738890929</v>
+        <v>1.019591196256556</v>
       </c>
       <c r="M24">
-        <v>1.018691763107986</v>
+        <v>1.031690225554625</v>
       </c>
       <c r="N24">
-        <v>1.012805399038018</v>
+        <v>1.027011138765179</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9953937775979902</v>
+        <v>1.005534808922134</v>
       </c>
       <c r="D25">
-        <v>1.016615651758966</v>
+        <v>1.025329756437465</v>
       </c>
       <c r="E25">
-        <v>1.002479594109206</v>
+        <v>1.011610864403095</v>
       </c>
       <c r="F25">
-        <v>1.015801179995632</v>
+        <v>1.025034638673559</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041188712514459</v>
+        <v>1.045271389981937</v>
       </c>
       <c r="J25">
-        <v>1.020077160132136</v>
+        <v>1.02987732966511</v>
       </c>
       <c r="K25">
-        <v>1.028961392792424</v>
+        <v>1.037547185793917</v>
       </c>
       <c r="L25">
-        <v>1.015039539138087</v>
+        <v>1.024031571371752</v>
       </c>
       <c r="M25">
-        <v>1.028159056866676</v>
+        <v>1.037256368243009</v>
       </c>
       <c r="N25">
-        <v>1.02152578670401</v>
+        <v>1.031339873601816</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01135130848559</v>
+        <v>1.007488073831633</v>
       </c>
       <c r="D2">
-        <v>1.02983226033272</v>
+        <v>1.027617000477373</v>
       </c>
       <c r="E2">
-        <v>1.016213303603752</v>
+        <v>1.012936089983083</v>
       </c>
       <c r="F2">
-        <v>1.030494093459589</v>
+        <v>1.027853905880117</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046985795683918</v>
+        <v>1.045518771003352</v>
       </c>
       <c r="J2">
-        <v>1.033197724761458</v>
+        <v>1.029447101543896</v>
       </c>
       <c r="K2">
-        <v>1.040891059052958</v>
+        <v>1.038704540765063</v>
       </c>
       <c r="L2">
-        <v>1.02745128955564</v>
+        <v>1.024218098970475</v>
       </c>
       <c r="M2">
-        <v>1.041544335317632</v>
+        <v>1.038938365066054</v>
       </c>
       <c r="N2">
-        <v>1.03466498404006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013719356112836</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038437735821049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015461519037991</v>
+        <v>1.010846541934948</v>
       </c>
       <c r="D3">
-        <v>1.033020981364742</v>
+        <v>1.029943937406326</v>
       </c>
       <c r="E3">
-        <v>1.019478523308617</v>
+        <v>1.015542246690203</v>
       </c>
       <c r="F3">
-        <v>1.034364292140509</v>
+        <v>1.030874885989697</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048180124674986</v>
+        <v>1.046265529055029</v>
       </c>
       <c r="J3">
-        <v>1.035539381572408</v>
+        <v>1.03104582401006</v>
       </c>
       <c r="K3">
-        <v>1.043248091417282</v>
+        <v>1.040207496057897</v>
       </c>
       <c r="L3">
-        <v>1.029868094419589</v>
+        <v>1.025980050063612</v>
       </c>
       <c r="M3">
-        <v>1.044575574418832</v>
+        <v>1.041127388803464</v>
       </c>
       <c r="N3">
-        <v>1.037009966272268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014257427594421</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039497790428789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018071488433713</v>
+        <v>1.012985599957827</v>
       </c>
       <c r="D4">
-        <v>1.035048776007421</v>
+        <v>1.031430355287901</v>
       </c>
       <c r="E4">
-        <v>1.021557645251914</v>
+        <v>1.017207901782101</v>
       </c>
       <c r="F4">
-        <v>1.036827325362765</v>
+        <v>1.032805287107906</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048930365657254</v>
+        <v>1.046734161605779</v>
       </c>
       <c r="J4">
-        <v>1.037023954175958</v>
+        <v>1.032062866283089</v>
       </c>
       <c r="K4">
-        <v>1.044741824155213</v>
+        <v>1.041163684022738</v>
       </c>
       <c r="L4">
-        <v>1.031402668563714</v>
+        <v>1.027102985712353</v>
       </c>
       <c r="M4">
-        <v>1.046500701220541</v>
+        <v>1.042523269069379</v>
       </c>
       <c r="N4">
-        <v>1.038496647139198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014599708683002</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040174792579155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019157223561517</v>
+        <v>1.013879653444161</v>
       </c>
       <c r="D5">
-        <v>1.035892999752101</v>
+        <v>1.032054642975285</v>
       </c>
       <c r="E5">
-        <v>1.022423885455194</v>
+        <v>1.017905754901749</v>
       </c>
       <c r="F5">
-        <v>1.037853217518945</v>
+        <v>1.03361481621284</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049240474321707</v>
+        <v>1.046929702116862</v>
       </c>
       <c r="J5">
-        <v>1.037640931445473</v>
+        <v>1.032489015798127</v>
       </c>
       <c r="K5">
-        <v>1.045362461356283</v>
+        <v>1.041565697835133</v>
       </c>
       <c r="L5">
-        <v>1.032040992203163</v>
+        <v>1.027573466033673</v>
       </c>
       <c r="M5">
-        <v>1.04730158321793</v>
+        <v>1.043108918991748</v>
       </c>
       <c r="N5">
-        <v>1.039114500587204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014743319930788</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040466215873032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019338859903657</v>
+        <v>1.014032641718764</v>
       </c>
       <c r="D6">
-        <v>1.036034271063998</v>
+        <v>1.032163954218401</v>
       </c>
       <c r="E6">
-        <v>1.02256887916745</v>
+        <v>1.018025624541892</v>
       </c>
       <c r="F6">
-        <v>1.038024916995772</v>
+        <v>1.033754880813167</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049292235691052</v>
+        <v>1.046964731532904</v>
       </c>
       <c r="J6">
-        <v>1.037744111698798</v>
+        <v>1.032563584302134</v>
       </c>
       <c r="K6">
-        <v>1.045466244869243</v>
+        <v>1.041637675995944</v>
       </c>
       <c r="L6">
-        <v>1.032147775606147</v>
+        <v>1.027655172344922</v>
       </c>
       <c r="M6">
-        <v>1.047435566784449</v>
+        <v>1.043211395340026</v>
       </c>
       <c r="N6">
-        <v>1.039217827368324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014768689980344</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040525849117532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01808604075797</v>
+        <v>1.01300654054087</v>
       </c>
       <c r="D7">
-        <v>1.035060088712185</v>
+        <v>1.03145146372269</v>
       </c>
       <c r="E7">
-        <v>1.021569250417597</v>
+        <v>1.017225254704951</v>
       </c>
       <c r="F7">
-        <v>1.036841070577919</v>
+        <v>1.032828127303575</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048934529997455</v>
+        <v>1.046743228628936</v>
       </c>
       <c r="J7">
-        <v>1.037032226044555</v>
+        <v>1.032077318355218</v>
       </c>
       <c r="K7">
-        <v>1.044750145681105</v>
+        <v>1.041181677297582</v>
       </c>
       <c r="L7">
-        <v>1.03141122438829</v>
+        <v>1.027117204672209</v>
       </c>
       <c r="M7">
-        <v>1.046511435494647</v>
+        <v>1.042542980700981</v>
       </c>
       <c r="N7">
-        <v>1.038504930754797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014605234370253</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04020761534269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012750880752785</v>
+        <v>1.008641486511055</v>
       </c>
       <c r="D8">
-        <v>1.030917407853569</v>
+        <v>1.028423256108026</v>
       </c>
       <c r="E8">
-        <v>1.017323926354986</v>
+        <v>1.013831237839196</v>
       </c>
       <c r="F8">
-        <v>1.031810774071312</v>
+        <v>1.028894909563152</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047394166171684</v>
+        <v>1.045782200107563</v>
       </c>
       <c r="J8">
-        <v>1.033995563572866</v>
+        <v>1.030001953136028</v>
       </c>
       <c r="K8">
-        <v>1.041694256118417</v>
+        <v>1.039231502977735</v>
       </c>
       <c r="L8">
-        <v>1.028274237875184</v>
+        <v>1.024827059669924</v>
       </c>
       <c r="M8">
-        <v>1.042576421880963</v>
+        <v>1.039697204276391</v>
       </c>
       <c r="N8">
-        <v>1.035463955874089</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013906957132665</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038833246529535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002951674291753</v>
+        <v>1.000663923758889</v>
       </c>
       <c r="D9">
-        <v>1.023333991157863</v>
+        <v>1.022914389263234</v>
       </c>
       <c r="E9">
-        <v>1.009573596983284</v>
+        <v>1.007673368860815</v>
       </c>
       <c r="F9">
-        <v>1.02261640838564</v>
+        <v>1.021751188467897</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044501762158379</v>
+        <v>1.04396471300011</v>
       </c>
       <c r="J9">
-        <v>1.028400630169642</v>
+        <v>1.026193258931028</v>
       </c>
       <c r="K9">
-        <v>1.036059503883587</v>
+        <v>1.035646322787279</v>
       </c>
       <c r="L9">
-        <v>1.022513235632885</v>
+        <v>1.02064316580053</v>
       </c>
       <c r="M9">
-        <v>1.035352905730675</v>
+        <v>1.034500956615211</v>
       </c>
       <c r="N9">
-        <v>1.029861077023684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012624295375181</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036295110379021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9961247023337088</v>
+        <v>0.9951511186453974</v>
       </c>
       <c r="D10">
-        <v>1.018070949149875</v>
+        <v>1.019136102578658</v>
       </c>
       <c r="E10">
-        <v>1.004208614690161</v>
+        <v>1.003451988649218</v>
       </c>
       <c r="F10">
-        <v>1.016243442073583</v>
+        <v>1.016852010539338</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042446032621342</v>
+        <v>1.042675497116289</v>
       </c>
       <c r="J10">
-        <v>1.02449292288078</v>
+        <v>1.023558448104824</v>
       </c>
       <c r="K10">
-        <v>1.032121416503834</v>
+        <v>1.033168235830228</v>
       </c>
       <c r="L10">
-        <v>1.018502294806206</v>
+        <v>1.017759194838508</v>
       </c>
       <c r="M10">
-        <v>1.030325481496913</v>
+        <v>1.030923520011165</v>
       </c>
       <c r="N10">
-        <v>1.025947820342251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011737305190048</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034559771892741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9930924032480046</v>
+        <v>0.992725238347878</v>
       </c>
       <c r="D11">
-        <v>1.015738779108013</v>
+        <v>1.017488068130879</v>
       </c>
       <c r="E11">
-        <v>1.001834507765476</v>
+        <v>1.00160430442848</v>
       </c>
       <c r="F11">
-        <v>1.013421070139663</v>
+        <v>1.014709853789038</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041523796624325</v>
+        <v>1.042105699612577</v>
       </c>
       <c r="J11">
-        <v>1.022755396785185</v>
+        <v>1.022403819061547</v>
       </c>
       <c r="K11">
-        <v>1.030369865888297</v>
+        <v>1.032087552752625</v>
       </c>
       <c r="L11">
-        <v>1.016721910683663</v>
+        <v>1.016496029204158</v>
       </c>
       <c r="M11">
-        <v>1.028094246669728</v>
+        <v>1.02935959504886</v>
       </c>
       <c r="N11">
-        <v>1.024207826760303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011349640285208</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033828566846465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9919540464809199</v>
+        <v>0.991809953235294</v>
       </c>
       <c r="D12">
-        <v>1.014864143915819</v>
+        <v>1.016862920974871</v>
       </c>
       <c r="E12">
-        <v>1.000944625733131</v>
+        <v>1.00090763071848</v>
       </c>
       <c r="F12">
-        <v>1.012362813486581</v>
+        <v>1.013900328901595</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041176246897737</v>
+        <v>1.041886587251045</v>
       </c>
       <c r="J12">
-        <v>1.022102872603282</v>
+        <v>1.021965021101808</v>
       </c>
       <c r="K12">
-        <v>1.02971200547445</v>
+        <v>1.031674031230382</v>
       </c>
       <c r="L12">
-        <v>1.016053750554196</v>
+        <v>1.016017462590352</v>
       </c>
       <c r="M12">
-        <v>1.027256933364505</v>
+        <v>1.028765979525738</v>
       </c>
       <c r="N12">
-        <v>1.023554375919217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011201785002734</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033536192844372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9921987818064925</v>
+        <v>0.9920053908456109</v>
       </c>
       <c r="D13">
-        <v>1.015052140694471</v>
+        <v>1.016995501179323</v>
       </c>
       <c r="E13">
-        <v>1.001135878071604</v>
+        <v>1.001056161400327</v>
       </c>
       <c r="F13">
-        <v>1.012590268938254</v>
+        <v>1.014072599888052</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041251026136508</v>
+        <v>1.041932845344421</v>
       </c>
       <c r="J13">
-        <v>1.022243168893701</v>
+        <v>1.0220581191289</v>
       </c>
       <c r="K13">
-        <v>1.029853452082594</v>
+        <v>1.031761214378773</v>
       </c>
       <c r="L13">
-        <v>1.0161973878704</v>
+        <v>1.016119188955055</v>
       </c>
       <c r="M13">
-        <v>1.027436932271532</v>
+        <v>1.028891921746898</v>
       </c>
       <c r="N13">
-        <v>1.023694871446461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.0112330480178</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033595336923657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9929985551373878</v>
+        <v>0.9926492074472588</v>
       </c>
       <c r="D14">
-        <v>1.015666654287563</v>
+        <v>1.017435750259553</v>
       </c>
       <c r="E14">
-        <v>1.001761115900846</v>
+        <v>1.001546334673138</v>
       </c>
       <c r="F14">
-        <v>1.01333379908041</v>
+        <v>1.014642357004161</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041495170866947</v>
+        <v>1.042087274006509</v>
       </c>
       <c r="J14">
-        <v>1.022701606170036</v>
+        <v>1.022367114124127</v>
       </c>
       <c r="K14">
-        <v>1.030315636744141</v>
+        <v>1.032052725883867</v>
       </c>
       <c r="L14">
-        <v>1.016666821774137</v>
+        <v>1.016456078849966</v>
       </c>
       <c r="M14">
-        <v>1.028025210394094</v>
+        <v>1.029309937629945</v>
       </c>
       <c r="N14">
-        <v>1.024153959756311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011337226893762</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033802873179628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.993489710331563</v>
+        <v>0.9930473179281987</v>
       </c>
       <c r="D15">
-        <v>1.016044156881335</v>
+        <v>1.017709828038099</v>
       </c>
       <c r="E15">
-        <v>1.002145269808263</v>
+        <v>1.001849944499606</v>
       </c>
       <c r="F15">
-        <v>1.013790586147781</v>
+        <v>1.014995892581084</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041644930017675</v>
+        <v>1.042183766315615</v>
       </c>
       <c r="J15">
-        <v>1.022983110501341</v>
+        <v>1.022559365742614</v>
       </c>
       <c r="K15">
-        <v>1.030599433266741</v>
+        <v>1.032235199568717</v>
       </c>
       <c r="L15">
-        <v>1.016955139254823</v>
+        <v>1.016665323595499</v>
       </c>
       <c r="M15">
-        <v>1.028386525727569</v>
+        <v>1.029570054539288</v>
       </c>
       <c r="N15">
-        <v>1.024435863856056</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011402255969676</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033937770878447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9963242923082348</v>
+        <v>0.9953324442187668</v>
       </c>
       <c r="D16">
-        <v>1.018224575263197</v>
+        <v>1.019274277482347</v>
       </c>
       <c r="E16">
-        <v>1.004365070387687</v>
+        <v>1.003593128438688</v>
       </c>
       <c r="F16">
-        <v>1.016429390941384</v>
+        <v>1.017021340712961</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042506548077792</v>
+        <v>1.042727955751571</v>
       </c>
       <c r="J16">
-        <v>1.024607253773474</v>
+        <v>1.023655099025253</v>
       </c>
       <c r="K16">
-        <v>1.032236660146364</v>
+        <v>1.033268353726789</v>
       </c>
       <c r="L16">
-        <v>1.018619509417961</v>
+        <v>1.017861321516479</v>
       </c>
       <c r="M16">
-        <v>1.030472385403985</v>
+        <v>1.031054127359826</v>
       </c>
       <c r="N16">
-        <v>1.026062313597927</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011771565307795</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034671422564913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9980815572297153</v>
+        <v>0.9967520007934559</v>
       </c>
       <c r="D17">
-        <v>1.019577789768736</v>
+        <v>1.020247904725832</v>
       </c>
       <c r="E17">
-        <v>1.005743577836942</v>
+        <v>1.004678263963611</v>
       </c>
       <c r="F17">
-        <v>1.018067503168891</v>
+        <v>1.018281952905868</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043038310511115</v>
+        <v>1.043063911272904</v>
       </c>
       <c r="J17">
-        <v>1.025613658511639</v>
+        <v>1.024335569568152</v>
       </c>
       <c r="K17">
-        <v>1.033251041575027</v>
+        <v>1.033909990589008</v>
       </c>
       <c r="L17">
-        <v>1.019651645243199</v>
+        <v>1.018604760490052</v>
       </c>
       <c r="M17">
-        <v>1.031765989933757</v>
+        <v>1.031976850613207</v>
       </c>
       <c r="N17">
-        <v>1.027070147546257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012000914503544</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035127676069302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9990992314643914</v>
+        <v>0.9975685453084345</v>
       </c>
       <c r="D18">
-        <v>1.020361985946124</v>
+        <v>1.020804015535187</v>
       </c>
       <c r="E18">
-        <v>1.006542739655271</v>
+        <v>1.005302381877158</v>
       </c>
       <c r="F18">
-        <v>1.019016956199985</v>
+        <v>1.019005151235436</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043345394107035</v>
+        <v>1.043253308583356</v>
       </c>
       <c r="J18">
-        <v>1.026196311994416</v>
+        <v>1.024723725827114</v>
       </c>
       <c r="K18">
-        <v>1.033838263535325</v>
+        <v>1.03427305367724</v>
       </c>
       <c r="L18">
-        <v>1.020249484559552</v>
+        <v>1.01903021271042</v>
       </c>
       <c r="M18">
-        <v>1.032515312027954</v>
+        <v>1.032503701170028</v>
       </c>
       <c r="N18">
-        <v>1.027653628463811</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012131198121249</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035372720299494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9994450094687187</v>
+        <v>0.9978512271467517</v>
       </c>
       <c r="D19">
-        <v>1.020628520403853</v>
+        <v>1.021000178860145</v>
       </c>
       <c r="E19">
-        <v>1.00681441310919</v>
+        <v>1.005519243815348</v>
       </c>
       <c r="F19">
-        <v>1.01933968591002</v>
+        <v>1.019257802315826</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043449583462877</v>
+        <v>1.043321147090174</v>
       </c>
       <c r="J19">
-        <v>1.026394250125377</v>
+        <v>1.024860555469506</v>
       </c>
       <c r="K19">
-        <v>1.034037745010411</v>
+        <v>1.034403352552133</v>
       </c>
       <c r="L19">
-        <v>1.020452630554819</v>
+        <v>1.019179347247672</v>
       </c>
       <c r="M19">
-        <v>1.032769937766305</v>
+        <v>1.0326893924067</v>
       </c>
       <c r="N19">
-        <v>1.027851847689621</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012177550283633</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035471247585054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9978937793902806</v>
+        <v>0.9965996920247978</v>
       </c>
       <c r="D20">
-        <v>1.019433133878048</v>
+        <v>1.020143023215116</v>
       </c>
       <c r="E20">
-        <v>1.005596186258074</v>
+        <v>1.004561686817026</v>
       </c>
       <c r="F20">
-        <v>1.017892376203199</v>
+        <v>1.018146396078316</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042981577659792</v>
+        <v>1.043027705508965</v>
       </c>
       <c r="J20">
-        <v>1.025506134444595</v>
+        <v>1.024262322046934</v>
       </c>
       <c r="K20">
-        <v>1.033142670366869</v>
+        <v>1.033840693620352</v>
       </c>
       <c r="L20">
-        <v>1.019541342086765</v>
+        <v>1.018524795930009</v>
       </c>
       <c r="M20">
-        <v>1.031627740491677</v>
+        <v>1.031877495280707</v>
       </c>
       <c r="N20">
-        <v>1.026962470782705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011976184347212</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035077343129274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9927633786514464</v>
+        <v>0.9924669054302322</v>
       </c>
       <c r="D21">
-        <v>1.015485929261611</v>
+        <v>1.017315875858561</v>
       </c>
       <c r="E21">
-        <v>1.001577223740141</v>
+        <v>1.001408444792605</v>
       </c>
       <c r="F21">
-        <v>1.013115125177668</v>
+        <v>1.01448391413678</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041423415491195</v>
+        <v>1.042046834955803</v>
       </c>
       <c r="J21">
-        <v>1.022566807126764</v>
+        <v>1.022282993876181</v>
       </c>
       <c r="K21">
-        <v>1.030179737660234</v>
+        <v>1.031976455525116</v>
       </c>
       <c r="L21">
-        <v>1.016528776618251</v>
+        <v>1.016363182795716</v>
       </c>
       <c r="M21">
-        <v>1.027852215806075</v>
+        <v>1.029195983547091</v>
       </c>
       <c r="N21">
-        <v>1.024018969282936</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011309461906802</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033762484096533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9894677990535363</v>
+        <v>0.9898133697522762</v>
       </c>
       <c r="D22">
-        <v>1.012955580235866</v>
+        <v>1.015500598458118</v>
       </c>
       <c r="E22">
-        <v>0.9990036688346148</v>
+        <v>0.9993902367392178</v>
       </c>
       <c r="F22">
-        <v>1.010053938545205</v>
+        <v>1.01213665145688</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040414773993062</v>
+        <v>1.041406109085508</v>
       </c>
       <c r="J22">
-        <v>1.020677323800031</v>
+        <v>1.021007267995632</v>
       </c>
       <c r="K22">
-        <v>1.028274680633269</v>
+        <v>1.030771115094131</v>
       </c>
       <c r="L22">
-        <v>1.014594889112417</v>
+        <v>1.014973782844594</v>
       </c>
       <c r="M22">
-        <v>1.025428821863312</v>
+        <v>1.02747145302504</v>
       </c>
       <c r="N22">
-        <v>1.022126802673152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010879000184637</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032896728010562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9912216770378404</v>
+        <v>0.9912160935269105</v>
       </c>
       <c r="D23">
-        <v>1.014301699013481</v>
+        <v>1.016453863104755</v>
       </c>
       <c r="E23">
-        <v>1.000372510949008</v>
+        <v>1.000455246888216</v>
       </c>
       <c r="F23">
-        <v>1.011682347046852</v>
+        <v>1.01337320513824</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040952278412047</v>
+        <v>1.041741559179661</v>
       </c>
       <c r="J23">
-        <v>1.021683004786843</v>
+        <v>1.021677666258418</v>
       </c>
       <c r="K23">
-        <v>1.029288685563002</v>
+        <v>1.03140083250184</v>
       </c>
       <c r="L23">
-        <v>1.015623951449442</v>
+        <v>1.015705088111357</v>
       </c>
       <c r="M23">
-        <v>1.026718337576895</v>
+        <v>1.028377524526232</v>
       </c>
       <c r="N23">
-        <v>1.023133911842319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011104492646625</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03333231644721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9979786506570216</v>
+        <v>0.9966546850505205</v>
       </c>
       <c r="D24">
-        <v>1.019498513416709</v>
+        <v>1.020171368120274</v>
       </c>
       <c r="E24">
-        <v>1.005662801279161</v>
+        <v>1.004601981945885</v>
       </c>
       <c r="F24">
-        <v>1.017971527142539</v>
+        <v>1.018189567097225</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043007222312889</v>
+        <v>1.043034316451585</v>
       </c>
       <c r="J24">
-        <v>1.025554733410963</v>
+        <v>1.024282121062132</v>
       </c>
       <c r="K24">
-        <v>1.033191652380313</v>
+        <v>1.03385327579783</v>
       </c>
       <c r="L24">
-        <v>1.019591196256556</v>
+        <v>1.018548760744217</v>
       </c>
       <c r="M24">
-        <v>1.031690225554625</v>
+        <v>1.031904609801224</v>
       </c>
       <c r="N24">
-        <v>1.027011138765179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011981731001781</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035058805012598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005534808922134</v>
+        <v>1.002774346838173</v>
       </c>
       <c r="D25">
-        <v>1.025329756437465</v>
+        <v>1.024377381714074</v>
       </c>
       <c r="E25">
-        <v>1.011610864403095</v>
+        <v>1.009298495698322</v>
       </c>
       <c r="F25">
-        <v>1.025034638673559</v>
+        <v>1.023640954982431</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045271389981937</v>
+        <v>1.04445857665831</v>
       </c>
       <c r="J25">
-        <v>1.02987732966511</v>
+        <v>1.027208702521715</v>
       </c>
       <c r="K25">
-        <v>1.037547185793917</v>
+        <v>1.036608699587193</v>
       </c>
       <c r="L25">
-        <v>1.024031571371752</v>
+        <v>1.021754159232509</v>
       </c>
       <c r="M25">
-        <v>1.037256368243009</v>
+        <v>1.035883034678062</v>
       </c>
       <c r="N25">
-        <v>1.031339873601816</v>
+        <v>1.012967408803367</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03700416968296</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007488073831633</v>
+        <v>1.007160222125483</v>
       </c>
       <c r="D2">
-        <v>1.027617000477373</v>
+        <v>1.026816800215033</v>
       </c>
       <c r="E2">
-        <v>1.012936089983083</v>
+        <v>1.012658143212791</v>
       </c>
       <c r="F2">
-        <v>1.027853905880117</v>
+        <v>1.027149343372835</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045518771003352</v>
+        <v>1.045198604536222</v>
       </c>
       <c r="J2">
-        <v>1.029447101543896</v>
+        <v>1.029128861147825</v>
       </c>
       <c r="K2">
-        <v>1.038704540765063</v>
+        <v>1.037914760767768</v>
       </c>
       <c r="L2">
-        <v>1.024218098970475</v>
+        <v>1.02394390235927</v>
       </c>
       <c r="M2">
-        <v>1.038938365066054</v>
+        <v>1.038242971055773</v>
       </c>
       <c r="N2">
-        <v>1.013719356112836</v>
+        <v>1.014925566759529</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038437735821049</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037888068802848</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022139813624149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010846541934948</v>
+        <v>1.010402034507892</v>
       </c>
       <c r="D3">
-        <v>1.029943937406326</v>
+        <v>1.028984653111231</v>
       </c>
       <c r="E3">
-        <v>1.015542246690203</v>
+        <v>1.015162334663465</v>
       </c>
       <c r="F3">
-        <v>1.030874885989697</v>
+        <v>1.030019305346177</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046265529055029</v>
+        <v>1.045867445022739</v>
       </c>
       <c r="J3">
-        <v>1.03104582401006</v>
+        <v>1.030613091032809</v>
       </c>
       <c r="K3">
-        <v>1.040207496057897</v>
+        <v>1.039259630055668</v>
       </c>
       <c r="L3">
-        <v>1.025980050063612</v>
+        <v>1.02560481783084</v>
       </c>
       <c r="M3">
-        <v>1.041127388803464</v>
+        <v>1.040281968015367</v>
       </c>
       <c r="N3">
-        <v>1.014257427594421</v>
+        <v>1.015322519928813</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039497790428789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038836066820945</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022401171829412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012985599957827</v>
+        <v>1.012467497068883</v>
       </c>
       <c r="D4">
-        <v>1.031430355287901</v>
+        <v>1.030370203001372</v>
       </c>
       <c r="E4">
-        <v>1.017207901782101</v>
+        <v>1.01676357529877</v>
       </c>
       <c r="F4">
-        <v>1.032805287107906</v>
+        <v>1.031854135870979</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046734161605779</v>
+        <v>1.046286639367158</v>
       </c>
       <c r="J4">
-        <v>1.032062866283089</v>
+        <v>1.031557571728192</v>
       </c>
       <c r="K4">
-        <v>1.041163684022738</v>
+        <v>1.040115399419569</v>
       </c>
       <c r="L4">
-        <v>1.027102985712353</v>
+        <v>1.026663802716598</v>
       </c>
       <c r="M4">
-        <v>1.042523269069379</v>
+        <v>1.041582729067238</v>
       </c>
       <c r="N4">
-        <v>1.014599708683002</v>
+        <v>1.015575137749599</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040174792579155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039442146699039</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022565256253612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013879653444161</v>
+        <v>1.013330955130372</v>
       </c>
       <c r="D5">
-        <v>1.032054642975285</v>
+        <v>1.030952487980854</v>
       </c>
       <c r="E5">
-        <v>1.017905754901749</v>
+        <v>1.017434630281187</v>
       </c>
       <c r="F5">
-        <v>1.03361481621284</v>
+        <v>1.032623899888017</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046929702116862</v>
+        <v>1.046461574220553</v>
       </c>
       <c r="J5">
-        <v>1.032489015798127</v>
+        <v>1.03195348239611</v>
       </c>
       <c r="K5">
-        <v>1.041565697835133</v>
+        <v>1.040475556279384</v>
       </c>
       <c r="L5">
-        <v>1.027573466033673</v>
+        <v>1.027107650023623</v>
       </c>
       <c r="M5">
-        <v>1.043108918991748</v>
+        <v>1.042128762197293</v>
       </c>
       <c r="N5">
-        <v>1.014743319930788</v>
+        <v>1.015681191736716</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040466215873032</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039704684344643</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022634192186972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014032641718764</v>
+        <v>1.013478721983745</v>
       </c>
       <c r="D6">
-        <v>1.032163954218401</v>
+        <v>1.031054679641607</v>
       </c>
       <c r="E6">
-        <v>1.018025624541892</v>
+        <v>1.017549923935764</v>
       </c>
       <c r="F6">
-        <v>1.033754880813167</v>
+        <v>1.032757214728974</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046964731532904</v>
+        <v>1.046493096501406</v>
       </c>
       <c r="J6">
-        <v>1.032563584302134</v>
+        <v>1.03202288733995</v>
       </c>
       <c r="K6">
-        <v>1.041637675995944</v>
+        <v>1.04054043773435</v>
       </c>
       <c r="L6">
-        <v>1.027655172344922</v>
+        <v>1.027184807388979</v>
       </c>
       <c r="M6">
-        <v>1.043211395340026</v>
+        <v>1.042224512277866</v>
       </c>
       <c r="N6">
-        <v>1.014768689980344</v>
+        <v>1.015699974417331</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040525849117532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039760168028823</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022647089230144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01300654054087</v>
+        <v>1.012494265109321</v>
       </c>
       <c r="D7">
-        <v>1.03145146372269</v>
+        <v>1.030395274582483</v>
       </c>
       <c r="E7">
-        <v>1.017225254704951</v>
+        <v>1.01678611447862</v>
       </c>
       <c r="F7">
-        <v>1.032828127303575</v>
+        <v>1.031881453219572</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046743228628936</v>
+        <v>1.046298384809656</v>
       </c>
       <c r="J7">
-        <v>1.032077318355218</v>
+        <v>1.031577701770423</v>
       </c>
       <c r="K7">
-        <v>1.041181677297582</v>
+        <v>1.040137306882906</v>
       </c>
       <c r="L7">
-        <v>1.027117204672209</v>
+        <v>1.026683145950488</v>
       </c>
       <c r="M7">
-        <v>1.042542980700981</v>
+        <v>1.041606863753233</v>
       </c>
       <c r="N7">
-        <v>1.014605234370253</v>
+        <v>1.015606783014774</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04020761534269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039479735008159</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022571337507842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008641486511055</v>
+        <v>1.008293506420708</v>
       </c>
       <c r="D8">
-        <v>1.028423256108026</v>
+        <v>1.027583256297574</v>
       </c>
       <c r="E8">
-        <v>1.013831237839196</v>
+        <v>1.013536026815159</v>
       </c>
       <c r="F8">
-        <v>1.028894909563152</v>
+        <v>1.028154779987893</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045782200107563</v>
+        <v>1.045444884618228</v>
       </c>
       <c r="J8">
-        <v>1.030001953136028</v>
+        <v>1.029663836803614</v>
       </c>
       <c r="K8">
-        <v>1.039231502977735</v>
+        <v>1.038402120657349</v>
       </c>
       <c r="L8">
-        <v>1.024827059669924</v>
+        <v>1.024535713307891</v>
       </c>
       <c r="M8">
-        <v>1.039697204276391</v>
+        <v>1.038966418007267</v>
       </c>
       <c r="N8">
-        <v>1.013906957132665</v>
+        <v>1.015147529494698</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038833246529535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038257843191046</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022238231213531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000663923758889</v>
+        <v>1.000600403014028</v>
       </c>
       <c r="D9">
-        <v>1.022914389263234</v>
+        <v>1.022457100817106</v>
       </c>
       <c r="E9">
-        <v>1.007673368860815</v>
+        <v>1.007626231008108</v>
       </c>
       <c r="F9">
-        <v>1.021751188467897</v>
+        <v>1.021375923098216</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04396471300011</v>
+        <v>1.043815011490325</v>
       </c>
       <c r="J9">
-        <v>1.026193258931028</v>
+        <v>1.026131977303592</v>
       </c>
       <c r="K9">
-        <v>1.035646322787279</v>
+        <v>1.035196039480187</v>
       </c>
       <c r="L9">
-        <v>1.02064316580053</v>
+        <v>1.020596777919549</v>
       </c>
       <c r="M9">
-        <v>1.034500956615211</v>
+        <v>1.034131456013054</v>
       </c>
       <c r="N9">
-        <v>1.012624295375181</v>
+        <v>1.014211911781256</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036295110379021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035987477172712</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021601453424602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,93 +887,111 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9951511186453974</v>
+        <v>0.9953182506088272</v>
       </c>
       <c r="D10">
-        <v>1.019136102578658</v>
+        <v>1.018967933352533</v>
       </c>
       <c r="E10">
-        <v>1.003451988649218</v>
+        <v>1.00360578327798</v>
       </c>
       <c r="F10">
-        <v>1.016852010539338</v>
+        <v>1.016756925479415</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042675497116289</v>
+        <v>1.042670737595815</v>
       </c>
       <c r="J10">
-        <v>1.023558448104824</v>
+        <v>1.02371885865552</v>
       </c>
       <c r="K10">
-        <v>1.033168235830228</v>
+        <v>1.033002957946165</v>
       </c>
       <c r="L10">
-        <v>1.017759194838508</v>
+        <v>1.017910237962513</v>
       </c>
       <c r="M10">
-        <v>1.030923520011165</v>
+        <v>1.030830079116179</v>
       </c>
       <c r="N10">
-        <v>1.011737305190048</v>
+        <v>1.013683051041115</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034559771892741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034455335168614</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021157173841917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.992725238347878</v>
+        <v>0.993042465749703</v>
       </c>
       <c r="D11">
-        <v>1.017488068130879</v>
+        <v>1.017483169271026</v>
       </c>
       <c r="E11">
-        <v>1.00160430442848</v>
+        <v>1.001889614161896</v>
       </c>
       <c r="F11">
-        <v>1.014709853789038</v>
+        <v>1.014778055737653</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042105699612577</v>
+        <v>1.042187914497401</v>
       </c>
       <c r="J11">
-        <v>1.022403819061547</v>
+        <v>1.022707578308188</v>
       </c>
       <c r="K11">
-        <v>1.032087552752625</v>
+        <v>1.032082742196962</v>
       </c>
       <c r="L11">
-        <v>1.016496029204158</v>
+        <v>1.01677598289252</v>
       </c>
       <c r="M11">
-        <v>1.02935959504886</v>
+        <v>1.029426558969095</v>
       </c>
       <c r="N11">
-        <v>1.011349640285208</v>
+        <v>1.013641094178807</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033828566846465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033840805538178</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020973424963424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.991809953235294</v>
+        <v>0.9921884169591735</v>
       </c>
       <c r="D12">
-        <v>1.016862920974871</v>
+        <v>1.016922998397645</v>
       </c>
       <c r="E12">
-        <v>1.00090763071848</v>
+        <v>1.001246673341866</v>
       </c>
       <c r="F12">
-        <v>1.013900328901595</v>
+        <v>1.014033928527665</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041886587251045</v>
+        <v>1.042003852202881</v>
       </c>
       <c r="J12">
-        <v>1.021965021101808</v>
+        <v>1.022327096291654</v>
       </c>
       <c r="K12">
-        <v>1.031674031230382</v>
+        <v>1.031733006928612</v>
       </c>
       <c r="L12">
-        <v>1.016017462590352</v>
+        <v>1.016350027969711</v>
       </c>
       <c r="M12">
-        <v>1.028765979525738</v>
+        <v>1.028897110681415</v>
       </c>
       <c r="N12">
-        <v>1.011201785002734</v>
+        <v>1.013640834262157</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033536192844372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033593535828025</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020902704550596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9920053908456109</v>
+        <v>0.9923705726888609</v>
       </c>
       <c r="D13">
-        <v>1.016995501179323</v>
+        <v>1.01704153314059</v>
       </c>
       <c r="E13">
-        <v>1.001056161400327</v>
+        <v>1.001383549308944</v>
       </c>
       <c r="F13">
-        <v>1.014072599888052</v>
+        <v>1.014192051080104</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041932845344421</v>
+        <v>1.04204252596258</v>
       </c>
       <c r="J13">
-        <v>1.0220581191289</v>
+        <v>1.022407554109992</v>
       </c>
       <c r="K13">
-        <v>1.031761214378773</v>
+        <v>1.03180640528061</v>
       </c>
       <c r="L13">
-        <v>1.016119188955055</v>
+        <v>1.016440345617479</v>
       </c>
       <c r="M13">
-        <v>1.028891921746898</v>
+        <v>1.029009174205263</v>
       </c>
       <c r="N13">
-        <v>1.0112330480178</v>
+        <v>1.013639821861574</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033595336923657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03364269029005</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020917372535902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9926492074472588</v>
+        <v>0.9929714264166339</v>
       </c>
       <c r="D14">
-        <v>1.017435750259553</v>
+        <v>1.017436170361703</v>
       </c>
       <c r="E14">
-        <v>1.001546334673138</v>
+        <v>1.001836024080349</v>
       </c>
       <c r="F14">
-        <v>1.014642357004161</v>
+        <v>1.01471590680308</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042087274006509</v>
+        <v>1.042172354117718</v>
       </c>
       <c r="J14">
-        <v>1.022367114124127</v>
+        <v>1.022675630533949</v>
       </c>
       <c r="K14">
-        <v>1.032052725883867</v>
+        <v>1.032053138402662</v>
       </c>
       <c r="L14">
-        <v>1.016456078849966</v>
+        <v>1.016740322065862</v>
       </c>
       <c r="M14">
-        <v>1.029309937629945</v>
+        <v>1.029382150356928</v>
       </c>
       <c r="N14">
-        <v>1.011337226893762</v>
+        <v>1.013640590547356</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033802873179628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033818701417158</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020967364291318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9930473179281987</v>
+        <v>0.9933435855054606</v>
       </c>
       <c r="D15">
-        <v>1.017709828038099</v>
+        <v>1.017682538526835</v>
       </c>
       <c r="E15">
-        <v>1.001849944499606</v>
+        <v>1.002116866375269</v>
       </c>
       <c r="F15">
-        <v>1.014995892581084</v>
+        <v>1.015041596706696</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042183766315615</v>
+        <v>1.042253934316342</v>
       </c>
       <c r="J15">
-        <v>1.022559365742614</v>
+        <v>1.022843142486419</v>
       </c>
       <c r="K15">
-        <v>1.032235199568717</v>
+        <v>1.032208398978874</v>
       </c>
       <c r="L15">
-        <v>1.016665323595499</v>
+        <v>1.016927265537953</v>
       </c>
       <c r="M15">
-        <v>1.029570054539288</v>
+        <v>1.029614934200286</v>
       </c>
       <c r="N15">
-        <v>1.011402255969676</v>
+        <v>1.013643941737717</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033937770878447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033934926701663</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020999167867299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9953324442187668</v>
+        <v>0.9954893840489712</v>
       </c>
       <c r="D16">
-        <v>1.019274277482347</v>
+        <v>1.01909495261625</v>
       </c>
       <c r="E16">
-        <v>1.003593128438688</v>
+        <v>1.003737969624999</v>
       </c>
       <c r="F16">
-        <v>1.017021340712961</v>
+        <v>1.016915100366936</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042727955751571</v>
+        <v>1.042717198882612</v>
       </c>
       <c r="J16">
-        <v>1.023655099025253</v>
+        <v>1.023805750724399</v>
       </c>
       <c r="K16">
-        <v>1.033268353726789</v>
+        <v>1.033092101953441</v>
       </c>
       <c r="L16">
-        <v>1.017861321516479</v>
+        <v>1.018003579907117</v>
       </c>
       <c r="M16">
-        <v>1.031054127359826</v>
+        <v>1.030949717932727</v>
       </c>
       <c r="N16">
-        <v>1.011771565307795</v>
+        <v>1.013695166393529</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034671422564913</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034563207488676</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021178041364122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9967520007934559</v>
+        <v>0.9968320949993011</v>
       </c>
       <c r="D17">
-        <v>1.020247904725832</v>
+        <v>1.019981338196614</v>
       </c>
       <c r="E17">
-        <v>1.004678263963611</v>
+        <v>1.00475588060012</v>
       </c>
       <c r="F17">
-        <v>1.018281952905868</v>
+        <v>1.018089341452781</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043063911272904</v>
+        <v>1.043007532473311</v>
       </c>
       <c r="J17">
-        <v>1.024335569568152</v>
+        <v>1.02441255781513</v>
       </c>
       <c r="K17">
-        <v>1.033909990589008</v>
+        <v>1.033647863521635</v>
       </c>
       <c r="L17">
-        <v>1.018604760490052</v>
+        <v>1.018681032709941</v>
       </c>
       <c r="M17">
-        <v>1.031976850613207</v>
+        <v>1.031787462640288</v>
       </c>
       <c r="N17">
-        <v>1.012000914503544</v>
+        <v>1.013763608948314</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035127676069302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034958988967741</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021290595770382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9975685453084345</v>
+        <v>0.9976082082025878</v>
       </c>
       <c r="D18">
-        <v>1.020804015535187</v>
+        <v>1.020489960895671</v>
       </c>
       <c r="E18">
-        <v>1.005302381877158</v>
+        <v>1.005344679519965</v>
       </c>
       <c r="F18">
-        <v>1.019005151235436</v>
+        <v>1.018765892612246</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043253308583356</v>
+        <v>1.043172474476359</v>
       </c>
       <c r="J18">
-        <v>1.024723725827114</v>
+        <v>1.024761880070892</v>
       </c>
       <c r="K18">
-        <v>1.03427305367724</v>
+        <v>1.033964141714735</v>
       </c>
       <c r="L18">
-        <v>1.01903021271042</v>
+        <v>1.019071790191992</v>
       </c>
       <c r="M18">
-        <v>1.032503701170028</v>
+        <v>1.032268377874611</v>
       </c>
       <c r="N18">
-        <v>1.012131198121249</v>
+        <v>1.013815851984392</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035372720299494</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035169817857628</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021353762531762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9978512271467517</v>
+        <v>0.9978775769542768</v>
       </c>
       <c r="D19">
-        <v>1.021000178860145</v>
+        <v>1.020670256522133</v>
       </c>
       <c r="E19">
-        <v>1.005519243815348</v>
+        <v>1.005549913315684</v>
       </c>
       <c r="F19">
-        <v>1.019257802315826</v>
+        <v>1.019003003555913</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043321147090174</v>
+        <v>1.043232176673081</v>
       </c>
       <c r="J19">
-        <v>1.024860555469506</v>
+        <v>1.024885909656146</v>
       </c>
       <c r="K19">
-        <v>1.034403352552133</v>
+        <v>1.034078801347148</v>
       </c>
       <c r="L19">
-        <v>1.019179347247672</v>
+        <v>1.019209497648661</v>
       </c>
       <c r="M19">
-        <v>1.0326893924067</v>
+        <v>1.032438759625652</v>
       </c>
       <c r="N19">
-        <v>1.012177550283633</v>
+        <v>1.013837761884713</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035471247585054</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035257908896884</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021377396666477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9965996920247978</v>
+        <v>0.9966876378125157</v>
       </c>
       <c r="D20">
-        <v>1.020143023215116</v>
+        <v>1.019885519798345</v>
       </c>
       <c r="E20">
-        <v>1.004561686817026</v>
+        <v>1.004646168258305</v>
       </c>
       <c r="F20">
-        <v>1.018146396078316</v>
+        <v>1.017962723518883</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043027705508965</v>
+        <v>1.042976033848648</v>
       </c>
       <c r="J20">
-        <v>1.024262322046934</v>
+        <v>1.024346845319666</v>
       </c>
       <c r="K20">
-        <v>1.033840693620352</v>
+        <v>1.03358749201577</v>
       </c>
       <c r="L20">
-        <v>1.018524795930009</v>
+        <v>1.018607809438405</v>
       </c>
       <c r="M20">
-        <v>1.031877495280707</v>
+        <v>1.031696906375573</v>
       </c>
       <c r="N20">
-        <v>1.011976184347212</v>
+        <v>1.013754645881958</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035077343129274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034914837562774</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021278294693892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9924669054302322</v>
+        <v>0.9928175524167711</v>
       </c>
       <c r="D21">
-        <v>1.017315875858561</v>
+        <v>1.017341389494906</v>
       </c>
       <c r="E21">
-        <v>1.001408444792605</v>
+        <v>1.00172332667948</v>
       </c>
       <c r="F21">
-        <v>1.01448391413678</v>
+        <v>1.014583873484712</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042046834955803</v>
+        <v>1.042146768499504</v>
       </c>
       <c r="J21">
-        <v>1.022282993876181</v>
+        <v>1.022618668734186</v>
       </c>
       <c r="K21">
-        <v>1.031976455525116</v>
+        <v>1.032001506975934</v>
       </c>
       <c r="L21">
-        <v>1.016363182795716</v>
+        <v>1.016672123497051</v>
       </c>
       <c r="M21">
-        <v>1.029195983547091</v>
+        <v>1.029294119098972</v>
       </c>
       <c r="N21">
-        <v>1.011309461906802</v>
+        <v>1.01370726197169</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033762484096533</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033797044689116</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020959172572224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9898133697522762</v>
+        <v>0.9903321218437101</v>
       </c>
       <c r="D22">
-        <v>1.015500598458118</v>
+        <v>1.015707549230117</v>
       </c>
       <c r="E22">
-        <v>0.9993902367392178</v>
+        <v>0.9998525140477078</v>
       </c>
       <c r="F22">
-        <v>1.01213665145688</v>
+        <v>1.012418621839756</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041406109085508</v>
+        <v>1.041603181518518</v>
       </c>
       <c r="J22">
-        <v>1.021007267995632</v>
+        <v>1.021502591766526</v>
       </c>
       <c r="K22">
-        <v>1.030771115094131</v>
+        <v>1.030974129226365</v>
       </c>
       <c r="L22">
-        <v>1.014973782844594</v>
+        <v>1.015426893229906</v>
       </c>
       <c r="M22">
-        <v>1.02747145302504</v>
+        <v>1.027748013488116</v>
       </c>
       <c r="N22">
-        <v>1.010879000184637</v>
+        <v>1.013664378122499</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032896728010562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033055818989121</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020749077892101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9912160935269105</v>
+        <v>0.9916353196387598</v>
       </c>
       <c r="D23">
-        <v>1.016453863104755</v>
+        <v>1.016556820218609</v>
       </c>
       <c r="E23">
-        <v>1.000455246888216</v>
+        <v>1.000830090035626</v>
       </c>
       <c r="F23">
-        <v>1.01337320513824</v>
+        <v>1.013550065740258</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041741559179661</v>
+        <v>1.041882083066506</v>
       </c>
       <c r="J23">
-        <v>1.021677666258418</v>
+        <v>1.022078509344176</v>
       </c>
       <c r="K23">
-        <v>1.03140083250184</v>
+        <v>1.031501880777941</v>
       </c>
       <c r="L23">
-        <v>1.015705088111357</v>
+        <v>1.016072689918839</v>
       </c>
       <c r="M23">
-        <v>1.028377524526232</v>
+        <v>1.028551080353286</v>
       </c>
       <c r="N23">
-        <v>1.011104492646625</v>
+        <v>1.013643053847718</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03333231644721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033418370224058</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020855201346625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9966546850505205</v>
+        <v>0.9967397232922687</v>
       </c>
       <c r="D24">
-        <v>1.020171368120274</v>
+        <v>1.019910353534243</v>
       </c>
       <c r="E24">
-        <v>1.004601981945885</v>
+        <v>1.004683939440549</v>
       </c>
       <c r="F24">
-        <v>1.018189567097225</v>
+        <v>1.018002476975201</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043034316451585</v>
+        <v>1.04298089816243</v>
       </c>
       <c r="J24">
-        <v>1.024282121062132</v>
+        <v>1.0243638550936</v>
       </c>
       <c r="K24">
-        <v>1.03385327579783</v>
+        <v>1.033596615798813</v>
       </c>
       <c r="L24">
-        <v>1.018548760744217</v>
+        <v>1.01862929613842</v>
       </c>
       <c r="M24">
-        <v>1.031904609801224</v>
+        <v>1.03172065635233</v>
       </c>
       <c r="N24">
-        <v>1.011981731001781</v>
+        <v>1.013754371480669</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035058805012598</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03489118305145</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02127824405798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002774346838173</v>
+        <v>1.002626790082515</v>
       </c>
       <c r="D25">
-        <v>1.024377381714074</v>
+        <v>1.023812682545997</v>
       </c>
       <c r="E25">
-        <v>1.009298495698322</v>
+        <v>1.009178025361672</v>
       </c>
       <c r="F25">
-        <v>1.023640954982431</v>
+        <v>1.023162137748976</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04445857665831</v>
+        <v>1.044255233745176</v>
       </c>
       <c r="J25">
-        <v>1.027208702521715</v>
+        <v>1.027066074492756</v>
       </c>
       <c r="K25">
-        <v>1.036608699587193</v>
+        <v>1.03605225093266</v>
       </c>
       <c r="L25">
-        <v>1.021754159232509</v>
+        <v>1.021635515665829</v>
       </c>
       <c r="M25">
-        <v>1.035883034678062</v>
+        <v>1.035411225220908</v>
       </c>
       <c r="N25">
-        <v>1.012967408803367</v>
+        <v>1.014429982694625</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03700416968296</v>
+        <v>1.036624272488514</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021774981521424</v>
       </c>
     </row>
   </sheetData>
